--- a/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLe_M/Adressliste_Mit_Wertetabellen.xlsx
+++ b/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLe_M/Adressliste_Mit_Wertetabellen.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\DatenFiles\__In_Klassen_erarbeitet\2023_BZU_TI23BLe_M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AB035-1F4A-4EFA-9DBF-EFE6A2DD73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054CEDE-4585-4312-AE70-7049E6DF641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{83E8BE38-9732-49D2-B654-EC0F79113139}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{83E8BE38-9732-49D2-B654-EC0F79113139}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnverein" sheetId="1" r:id="rId1"/>
     <sheet name="Set-Up" sheetId="2" r:id="rId2"/>
     <sheet name="Messwerte" sheetId="3" r:id="rId3"/>
     <sheet name="Quadratische Funktion" sheetId="4" r:id="rId4"/>
+    <sheet name="Downloaded" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="215">
   <si>
     <t>Gender</t>
   </si>
@@ -285,13 +286,412 @@
   </si>
   <si>
     <t>Inc:</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TEL_P</t>
+  </si>
+  <si>
+    <t>Hollenstein</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Buobental 3</t>
+  </si>
+  <si>
+    <t>Lachen</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>ruth.hollenstein@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 87 42</t>
+  </si>
+  <si>
+    <t>Ruedi</t>
+  </si>
+  <si>
+    <t>Churerestrasse 14</t>
+  </si>
+  <si>
+    <t>ruedi.hollenstein@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 07 60</t>
+  </si>
+  <si>
+    <t>Janser</t>
+  </si>
+  <si>
+    <t>Churerstrasse 101</t>
+  </si>
+  <si>
+    <t>ruedi.janser@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 280 30 22</t>
+  </si>
+  <si>
+    <t>Juengling</t>
+  </si>
+  <si>
+    <t>Churerstrasse 21</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ruedi.juengling@gmail.ch</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Rosmarie</t>
+  </si>
+  <si>
+    <t>Churerstrasse 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schramberg </t>
+  </si>
+  <si>
+    <t>rosmarie.king@gmail.ch</t>
+  </si>
+  <si>
+    <t>0049 74 22  52 597</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Churerstrasse 64</t>
+  </si>
+  <si>
+    <t>Pfaeffikon</t>
+  </si>
+  <si>
+    <t>roman.koch@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 420 20 53</t>
+  </si>
+  <si>
+    <t>Koller</t>
+  </si>
+  <si>
+    <t>Rolf</t>
+  </si>
+  <si>
+    <t>Dorfplatz 9</t>
+  </si>
+  <si>
+    <t>rolf.koller@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 39 56</t>
+  </si>
+  <si>
+    <t>Koepfli</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Dorfstrasse 40</t>
+  </si>
+  <si>
+    <t>Zuerich</t>
+  </si>
+  <si>
+    <t>roland.koepfli@gmail.ch</t>
+  </si>
+  <si>
+    <t>044 463 37 53</t>
+  </si>
+  <si>
+    <t>Krieg</t>
+  </si>
+  <si>
+    <t>Roes</t>
+  </si>
+  <si>
+    <t>Ebenau 4</t>
+  </si>
+  <si>
+    <t>roes.krieg@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 80 32</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Eichwisstrasse 31</t>
+  </si>
+  <si>
+    <t>rita.krieg@gmail.ch</t>
+  </si>
+  <si>
+    <t>Eisenburgstrasse 40</t>
+  </si>
+  <si>
+    <t>Krieger</t>
+  </si>
+  <si>
+    <t>Richi</t>
+  </si>
+  <si>
+    <t>Engelhofstrasse 19</t>
+  </si>
+  <si>
+    <t>richi.krieger@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 91 70</t>
+  </si>
+  <si>
+    <t>Kussberger</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Engelplatz 12</t>
+  </si>
+  <si>
+    <t>richard.kussberger@gmail.ch</t>
+  </si>
+  <si>
+    <t>0049  7422 3872</t>
+  </si>
+  <si>
+    <t>Kuettel</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Etzelstrasse 1</t>
+  </si>
+  <si>
+    <t>Wollerau</t>
+  </si>
+  <si>
+    <t>riccardo.kuettel@gmail.ch</t>
+  </si>
+  <si>
+    <t>044 784 10 73</t>
+  </si>
+  <si>
+    <t>Laib</t>
+  </si>
+  <si>
+    <t>Ren�</t>
+  </si>
+  <si>
+    <t>Etzelstrasse 80</t>
+  </si>
+  <si>
+    <t>Nuolen</t>
+  </si>
+  <si>
+    <t>ren�.laib@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 32 92</t>
+  </si>
+  <si>
+    <t>Landolt</t>
+  </si>
+  <si>
+    <t>Freienbach</t>
+  </si>
+  <si>
+    <t>ren�.landolt@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 410 19 49</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Reinhard</t>
+  </si>
+  <si>
+    <t>Eulenweg 24</t>
+  </si>
+  <si>
+    <t>reinhard.lang@gmail.ch</t>
+  </si>
+  <si>
+    <t>Laeubli</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Feldmoostrasse 5</t>
+  </si>
+  <si>
+    <t>raphael.laeubli@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 410 31 38</t>
+  </si>
+  <si>
+    <t>Lurati</t>
+  </si>
+  <si>
+    <t>Ramona</t>
+  </si>
+  <si>
+    <t>Feldstrasse 11</t>
+  </si>
+  <si>
+    <t>Hombrechtikon</t>
+  </si>
+  <si>
+    <t>ramona.lurati@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 534 09 67</t>
+  </si>
+  <si>
+    <t>Maechler</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>ramon.maechler@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 17 58</t>
+  </si>
+  <si>
+    <t>Pius</t>
+  </si>
+  <si>
+    <t>Feldstrasse 16</t>
+  </si>
+  <si>
+    <t>pius.maechler@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 23 74</t>
+  </si>
+  <si>
+    <t>Maechler-Diethelm</t>
+  </si>
+  <si>
+    <t>Pirmin</t>
+  </si>
+  <si>
+    <t>Buttikon</t>
+  </si>
+  <si>
+    <t>pirmin.maechler-diethelm@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 33 70</t>
+  </si>
+  <si>
+    <t>Maeder</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>Feldstrasse 17c</t>
+  </si>
+  <si>
+    <t>pia.maeder@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 410 21 40</t>
+  </si>
+  <si>
+    <t>Mannhart</t>
+  </si>
+  <si>
+    <t>Feldstrasse 19</t>
+  </si>
+  <si>
+    <t>Maennedorf</t>
+  </si>
+  <si>
+    <t>pia.mannhart@gmail.ch</t>
+  </si>
+  <si>
+    <t>044 790 22 00</t>
+  </si>
+  <si>
+    <t>Felsenstrasse 20</t>
+  </si>
+  <si>
+    <t>Gestorben Marty</t>
+  </si>
+  <si>
+    <t>Philippe</t>
+  </si>
+  <si>
+    <t>Fluelastrasse 31a</t>
+  </si>
+  <si>
+    <t>philippe.gestorben marty@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 16 29</t>
+  </si>
+  <si>
+    <t>Marty</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Foehnloch 5</t>
+  </si>
+  <si>
+    <t>Altendorf</t>
+  </si>
+  <si>
+    <t>peter.marty@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 30 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +748,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -589,7 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -631,6 +1036,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3195,7 +3603,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="6.453125" customWidth="1"/>
@@ -3214,7 +3622,7 @@
     <col min="20" max="20" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -3343,7 +3751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -3406,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3471,7 +3879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3640,7 +4048,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
@@ -3648,7 +4056,7 @@
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3668,7 +4076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
@@ -3683,7 +4091,7 @@
         <v>stud.bzu.ch</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -3691,7 +4099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="B4" s="17" t="s">
         <v>25</v>
       </c>
@@ -3712,7 +4120,7 @@
       <selection activeCell="C4" sqref="C4:S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
     <col min="5" max="5" width="3.7265625" customWidth="1"/>
@@ -3720,12 +4128,12 @@
     <col min="14" max="14" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19">
       <c r="D4" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19">
       <c r="C5" s="23" t="s">
         <v>59</v>
       </c>
@@ -3760,7 +4168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19">
       <c r="C6" s="23" t="s">
         <v>60</v>
       </c>
@@ -3795,7 +4203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19">
       <c r="C7" s="24" t="s">
         <v>67</v>
       </c>
@@ -3833,7 +4241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -3844,7 +4252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19">
       <c r="D11" t="s">
         <v>75</v>
       </c>
@@ -3852,8 +4260,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="3:19" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:19" ht="15" thickBot="1"/>
+    <row r="14" spans="3:19" ht="19" thickBot="1">
       <c r="C14" s="28" t="s">
         <v>73</v>
       </c>
@@ -3882,7 +4290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19">
       <c r="M15" s="23" t="s">
         <v>65</v>
       </c>
@@ -3907,23 +4315,23 @@
   </sheetPr>
   <dimension ref="B2:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24">
       <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:24" ht="23.5">
       <c r="B3" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24">
       <c r="B5" s="31" t="s">
         <v>63</v>
       </c>
@@ -3931,7 +4339,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24">
       <c r="B6" s="31" t="s">
         <v>79</v>
       </c>
@@ -3939,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24">
       <c r="B7" s="31" t="s">
         <v>65</v>
       </c>
@@ -3947,7 +4355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24">
       <c r="D9" t="s">
         <v>81</v>
       </c>
@@ -3955,7 +4363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -4043,7 +4451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24">
       <c r="C11" t="s">
         <v>60</v>
       </c>
@@ -4132,7 +4540,7 @@
         <v>-99870</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24">
       <c r="C12" t="s">
         <v>80</v>
       </c>
@@ -4226,4 +4634,918 @@
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C30CC2-4911-4022-81CB-5A77157152A8}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="33">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <v>8853</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="33">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>8853</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="33">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>8853</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="33">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <v>53175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="33">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6">
+        <v>78713</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="33">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>8808</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="33">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8">
+        <v>8854</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="33">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>8045</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="33">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>8853</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="33">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>8853</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="33">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12">
+        <v>8853</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="33">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13">
+        <v>8853</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="33">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14">
+        <v>78713</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="33">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15">
+        <v>8832</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="33">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16">
+        <v>8855</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="33">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17">
+        <v>8807</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="33">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18">
+        <v>8853</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="33">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19">
+        <v>8808</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="33">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20">
+        <v>8634</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="33">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21">
+        <v>8853</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="33">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22">
+        <v>8854</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="33">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23">
+        <v>8863</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="33">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24">
+        <v>8807</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="33">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25">
+        <v>8708</v>
+      </c>
+      <c r="G25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="33">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26">
+        <v>8708</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="33">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27">
+        <v>8853</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="33">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28">
+        <v>8852</v>
+      </c>
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>